--- a/blood-pressure.xlsx
+++ b/blood-pressure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E301A9C-5A8A-4324-8A36-100B358D4253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2272E77A-2797-4C44-8A07-CD191817DCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,13 +76,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -96,39 +94,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -137,37 +106,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,976 +465,976 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H37" sqref="A1:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
     <col min="5" max="8" width="14.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="6">
         <v>101</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>59</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>93</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>63</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>97</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>54</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="7">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>104</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>67</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="7">
         <v>25</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>119</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>67</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="7">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
         <v>30</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>99</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>58</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>100</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>66</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>124</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>71</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <v>30</v>
       </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>97</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>62</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
       <c r="D10" s="7">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>100</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="6">
         <v>74</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="6">
         <v>97</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>66</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="7">
         <v>25</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="6">
         <v>95</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="6">
         <v>62</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
       <c r="D13" s="7">
         <v>25</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="6">
         <v>126</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="6">
         <v>70</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
       <c r="D14" s="7">
         <v>25</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>30</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1">
+      <c r="A15" s="6">
         <v>96</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="6">
         <v>58</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="A16" s="6">
         <v>92</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="6">
         <v>54</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="6">
         <v>115</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="6">
         <v>63</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
         <v>30</v>
       </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="6">
         <v>120</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="6">
         <v>59</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
         <v>30</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="6">
         <v>95</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="6">
         <v>55</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="7">
         <v>25</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="A20" s="6">
         <v>102</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="6">
         <v>63</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="7">
         <v>25</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="6">
         <v>119</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="6">
         <v>62</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="7">
         <v>25</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <v>30</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="6">
         <v>103</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="6">
         <v>61</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="7">
         <v>25</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
         <v>30</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="6">
         <v>125</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>62</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
         <v>30</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="6">
         <v>118</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="6">
         <v>61</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>1</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
         <v>30</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="6">
         <v>113</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="6">
         <v>58</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>1</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="6">
         <v>101</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="6">
         <v>68</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="6">
         <v>97</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="6">
         <v>59</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="6">
         <v>101</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="6">
         <v>64</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="6">
         <v>1</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="6">
         <v>116</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>57</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="6">
         <v>1</v>
       </c>
       <c r="D29" s="7">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
         <v>30</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="6">
         <v>123</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="6">
         <v>64</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="6">
         <v>1</v>
       </c>
       <c r="D30" s="7">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
         <v>30</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1">
+      <c r="A31" s="6">
         <v>106</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="6">
         <v>66</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="7">
         <v>0</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="A32" s="6">
         <v>108</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="6">
         <v>74</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="6">
         <v>0</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>121</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="6">
         <v>63</v>
       </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6">
         <v>30</v>
       </c>
-      <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>115</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="6">
         <v>57</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6">
         <v>15</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1">
+      <c r="A35" s="6">
         <v>114</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="6">
         <v>66</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
         <v>15</v>
       </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1">
+      <c r="A36" s="6">
         <v>110</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="6">
         <v>60</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6">
         <v>15</v>
       </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="1">
+      <c r="A37" s="6">
         <v>110</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="6">
         <v>60</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="1">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
         <v>15</v>
       </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="6">
         <v>200</v>
       </c>
     </row>

--- a/blood-pressure.xlsx
+++ b/blood-pressure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2272E77A-2797-4C44-8A07-CD191817DCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02EB011C-0A55-4335-ABAF-A2F2BDA2E2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
-    <t>systolic BP</t>
+    <t>systolic</t>
   </si>
   <si>
-    <t>diastolic BP</t>
+    <t>diastolic</t>
   </si>
   <si>
     <t>coffee</t>
@@ -54,7 +54,7 @@
     <t>time</t>
   </si>
   <si>
-    <t>water intake</t>
+    <t>water-intake</t>
   </si>
   <si>
     <t>0.5</t>
@@ -466,7 +466,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="A1:H37"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/blood-pressure.xlsx
+++ b/blood-pressure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02EB011C-0A55-4335-ABAF-A2F2BDA2E2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E29829E-72DE-4848-A7A8-47DD150FA519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>systolic</t>
   </si>
@@ -57,9 +57,6 @@
     <t>water-intake</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>12.5</t>
   </si>
 </sst>
@@ -76,11 +73,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -94,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -102,11 +101,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,20 +142,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,964 +514,964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>59</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>93</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>63</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>97</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>54</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>25</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>104</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>67</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>25</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>119</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>67</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>25</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>99</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>58</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>100</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>66</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="C8" s="1">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>124</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>71</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="C9" s="1">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>30</v>
       </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>97</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>62</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="C10" s="1">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>100</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>74</v>
       </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="C11" s="1">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>97</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>66</v>
       </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
         <v>25</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>95</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>62</v>
       </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2">
         <v>25</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>126</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>70</v>
       </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2">
         <v>25</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>30</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>96</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>58</v>
       </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>92</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>54</v>
       </c>
-      <c r="C16" s="6">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>115</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>63</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>30</v>
       </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
+      <c r="A18" s="1">
         <v>120</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>59</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>30</v>
       </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6">
+      <c r="A19" s="1">
         <v>95</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>55</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
         <v>25</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6">
+      <c r="A20" s="1">
         <v>102</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>63</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
         <v>25</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6">
+      <c r="A21" s="1">
         <v>119</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>62</v>
       </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>25</v>
       </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>30</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
+      <c r="A22" s="1">
         <v>103</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>61</v>
       </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
         <v>25</v>
       </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
         <v>30</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6">
+      <c r="A23" s="1">
         <v>125</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>62</v>
       </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="C23" s="1">
+        <v>50</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
         <v>30</v>
       </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6">
+      <c r="A24" s="1">
         <v>118</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>61</v>
       </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>30</v>
       </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6">
+      <c r="A25" s="1">
         <v>113</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>58</v>
       </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="C25" s="1">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6">
+      <c r="A26" s="1">
         <v>101</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>68</v>
       </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6">
+      <c r="C26" s="1">
+        <v>50</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6">
+      <c r="A27" s="1">
         <v>97</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>59</v>
       </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="C27" s="1">
+        <v>50</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6">
+      <c r="A28" s="1">
         <v>101</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>64</v>
       </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6">
+      <c r="A29" s="1">
         <v>116</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>57</v>
       </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="C29" s="1">
+        <v>50</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
         <v>30</v>
       </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6">
+      <c r="A30" s="1">
         <v>123</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>64</v>
       </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="C30" s="1">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
         <v>30</v>
       </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="6">
+      <c r="A31" s="1">
         <v>106</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>66</v>
       </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>1</v>
-      </c>
-      <c r="H31" s="6">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6">
+      <c r="A32" s="1">
         <v>108</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>74</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <v>1</v>
-      </c>
-      <c r="H32" s="6">
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6">
+      <c r="A33" s="8">
         <v>121</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="9">
         <v>63</v>
       </c>
-      <c r="C33" s="6">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="C33" s="8">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
         <v>30</v>
       </c>
-      <c r="G33" s="6">
-        <v>1</v>
-      </c>
-      <c r="H33" s="6">
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8">
         <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6">
+      <c r="A34" s="1">
         <v>115</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>57</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="1">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
         <v>15</v>
       </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6">
+      <c r="A35" s="1">
         <v>114</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>66</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="1">
+        <v>25</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
         <v>15</v>
       </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="6">
-        <v>110</v>
-      </c>
-      <c r="B36" s="6">
-        <v>60</v>
-      </c>
-      <c r="C36" s="6" t="s">
+      <c r="A36" s="1">
+        <v>109</v>
+      </c>
+      <c r="B36" s="3">
+        <v>52</v>
+      </c>
+      <c r="C36" s="1">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>15</v>
       </c>
-      <c r="G36" s="6">
-        <v>1</v>
-      </c>
-      <c r="H36" s="6">
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="6">
-        <v>110</v>
-      </c>
-      <c r="B37" s="6">
-        <v>60</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="A37" s="1">
+        <v>118</v>
+      </c>
+      <c r="B37" s="3">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
         <v>15</v>
       </c>
-      <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6">
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
         <v>200</v>
       </c>
     </row>
